--- a/excels/units_template.xlsx
+++ b/excels/units_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4373" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1555">
   <si>
     <t>英雄名</t>
   </si>
@@ -4647,6 +4647,9 @@
     <t>vscripts</t>
   </si>
   <si>
+    <t>IsAncient</t>
+  </si>
+  <si>
     <t>HasInventory</t>
   </si>
   <si>
@@ -4677,16 +4680,61 @@
     <t>undying_tombstone_zombie_deathstrike</t>
   </si>
   <si>
+    <t>DOTA_HULL_SIZE_SMALLEST</t>
+  </si>
+  <si>
+    <t>fabao_embryo</t>
+  </si>
+  <si>
+    <t>npc_dota_lone_druid_bear</t>
+  </si>
+  <si>
+    <t>models/fabao_embryo.vmdl</t>
+  </si>
+  <si>
+    <t>zhong_ling_shu_tree</t>
+  </si>
+  <si>
+    <t>models/props_tree/dire_tree005.vmdl</t>
+  </si>
+  <si>
     <t>neutral_spell_immunity</t>
   </si>
   <si>
-    <t>DOTA_HULL_SIZE_SMALLEST</t>
-  </si>
-  <si>
-    <t>fabao_embryo</t>
-  </si>
-  <si>
-    <t>models/fabao_embryo.vmdl</t>
+    <t>DOTA_HULL_SIZE_SMALL</t>
+  </si>
+  <si>
+    <t>rock_big</t>
+  </si>
+  <si>
+    <t>models/particle/earth_spirit_rockspike05.vmdl</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_REGULAR</t>
+  </si>
+  <si>
+    <t>rock_medium</t>
+  </si>
+  <si>
+    <t>rock_small</t>
+  </si>
+  <si>
+    <t>ju_jian_shu_unit</t>
+  </si>
+  <si>
+    <t>gui_wang</t>
+  </si>
+  <si>
+    <t>models/items/warlock/golem/hellsworn_golem/hellsworn_golem.vmdl</t>
+  </si>
+  <si>
+    <t>resentment_stacking</t>
+  </si>
+  <si>
+    <t>gui_wang_fire</t>
+  </si>
+  <si>
+    <t>DOTA_HULL_SIZE_HUGE</t>
   </si>
 </sst>
 </file>
@@ -5026,7 +5074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5103,6 +5151,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5114,6 +5165,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5149,6 +5203,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
@@ -5199,10 +5256,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -5211,14 +5268,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5546,7 +5603,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BR21"/>
+  <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
@@ -5555,16 +5612,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="17.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="28.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="68" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="69" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="71" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="72" width="19.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="44.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="70" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="69" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="69" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="73" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="72" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="72" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="12" width="12.719285714285713" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="12" width="13.290714285714287" customWidth="1" bestFit="1"/>
@@ -5575,55 +5632,56 @@
     <col min="19" max="19" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="69" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="69" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="69" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="69" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="71" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="69" width="39.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="69" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="69" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="69" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="69" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="69" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="69" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="69" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="69" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="69" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="69" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="69" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="69" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="68" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="68" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="72" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="72" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="72" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="72" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="72" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="68" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="68" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="68" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="72" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="72" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="72" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="72" width="47.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="74" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="72" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="72" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="72" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="72" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="72" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="72" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="72" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="72" width="52.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="72" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="72" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="72" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="72" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="72" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="71" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="71" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="75" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="71" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="75" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="75" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="75" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="71" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="71" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="71" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
     <col min="55" max="55" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="56" max="56" style="12" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="68" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="68" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="70" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="70" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="68" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="72" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="68" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="69" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="71" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="69" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="71" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="71" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="73" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="73" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="71" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="75" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="71" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="72" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="74" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="72" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="67" max="67" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="68" max="68" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="9" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="72" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -5720,13 +5778,13 @@
       <c r="AQ1" s="26" t="s">
         <v>1454</v>
       </c>
-      <c r="AR1" s="26" t="s">
+      <c r="AR1" s="27" t="s">
         <v>1455</v>
       </c>
       <c r="AS1" s="17" t="s">
         <v>1456</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AT1" s="28" t="s">
         <v>1457</v>
       </c>
       <c r="AU1" s="25" t="s">
@@ -5763,25 +5821,25 @@
       <c r="BF1" s="16" t="s">
         <v>1468</v>
       </c>
-      <c r="BG1" s="28" t="s">
+      <c r="BG1" s="29" t="s">
         <v>1469</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BH1" s="30" t="s">
         <v>1470</v>
       </c>
       <c r="BI1" s="16" t="s">
         <v>1471</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BJ1" s="28" t="s">
         <v>1472</v>
       </c>
       <c r="BK1" s="16" t="s">
         <v>1473</v>
       </c>
-      <c r="BL1" s="26" t="s">
+      <c r="BL1" s="27" t="s">
         <v>1474</v>
       </c>
-      <c r="BM1" s="26" t="s">
+      <c r="BM1" s="27" t="s">
         <v>1475</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -5790,155 +5848,156 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="3" t="s">
         <v>1477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>1478</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>1479</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="34" t="s">
         <v>1480</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="35" t="s">
         <v>1481</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>1482</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>1483</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="37" t="s">
         <v>1484</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="38" t="s">
         <v>1485</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="38" t="s">
         <v>1486</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="39">
         <v>1</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="39">
         <v>2</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="39">
         <v>3</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="39">
         <v>4</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="39">
         <v>5</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="39">
         <v>6</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="39">
         <v>7</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="39">
         <v>8</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="39">
         <v>9</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="39">
         <v>10</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="38" t="s">
         <v>1487</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="W2" s="38" t="s">
         <v>1487</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="38" t="s">
         <v>1488</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="38" t="s">
         <v>1489</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="40" t="s">
         <v>1490</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="38" t="s">
         <v>1491</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="41" t="s">
         <v>1492</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="41" t="s">
         <v>1493</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="41" t="s">
         <v>1494</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="41" t="s">
         <v>1495</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="41" t="s">
         <v>1496</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AG2" s="41" t="s">
         <v>1497</v>
       </c>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40" t="s">
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42" t="s">
         <v>1498</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="43" t="s">
         <v>1499</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AP2" s="35" t="s">
         <v>1500</v>
       </c>
-      <c r="AQ2" s="42" t="s">
+      <c r="AQ2" s="44" t="s">
         <v>1501</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AR2" s="45" t="s">
         <v>1502</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AS2" s="35" t="s">
         <v>1503</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="46" t="s">
         <v>1504</v>
       </c>
-      <c r="AU2" s="41" t="s">
+      <c r="AU2" s="43" t="s">
         <v>1505</v>
       </c>
-      <c r="AV2" s="41" t="s">
+      <c r="AV2" s="43" t="s">
         <v>1506</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AW2" s="43" t="s">
         <v>1507</v>
       </c>
-      <c r="AX2" s="41" t="s">
+      <c r="AX2" s="43" t="s">
         <v>1508</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="AY2" s="43" t="s">
         <v>1509</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>1510</v>
       </c>
-      <c r="BA2" s="41" t="s">
+      <c r="BA2" s="43" t="s">
         <v>1511</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BB2" s="43" t="s">
         <v>1512</v>
       </c>
       <c r="BC2" s="3" t="s">
@@ -5947,31 +6006,31 @@
       <c r="BD2" s="3" t="s">
         <v>1514</v>
       </c>
-      <c r="BE2" s="32" t="s">
+      <c r="BE2" s="34" t="s">
         <v>1515</v>
       </c>
-      <c r="BF2" s="32" t="s">
+      <c r="BF2" s="34" t="s">
         <v>1516</v>
       </c>
-      <c r="BG2" s="44" t="s">
+      <c r="BG2" s="47" t="s">
         <v>1517</v>
       </c>
-      <c r="BH2" s="45" t="s">
+      <c r="BH2" s="48" t="s">
         <v>1518</v>
       </c>
-      <c r="BI2" s="32" t="s">
+      <c r="BI2" s="34" t="s">
         <v>1519</v>
       </c>
-      <c r="BJ2" s="43" t="s">
+      <c r="BJ2" s="46" t="s">
         <v>1520</v>
       </c>
-      <c r="BK2" s="32" t="s">
+      <c r="BK2" s="34" t="s">
         <v>1521</v>
       </c>
-      <c r="BL2" s="42" t="s">
+      <c r="BL2" s="45" t="s">
         <v>1522</v>
       </c>
-      <c r="BM2" s="42" t="s">
+      <c r="BM2" s="45" t="s">
         <v>1523</v>
       </c>
       <c r="BN2" s="1" t="s">
@@ -5986,137 +6045,140 @@
       <c r="BQ2" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BR2" s="31" t="s">
         <v>1525</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="46" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B3" s="47">
+      <c r="A3" s="49" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="51">
         <f>C3&amp;"_1"</f>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="51">
         <f>D3</f>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="52">
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G3" s="53" t="s">
         <v>1362</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="51">
+      <c r="H3" s="49"/>
+      <c r="I3" s="54">
         <v>1</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="52">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="55">
         <v>9641</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="56">
         <v>9639</v>
       </c>
-      <c r="N3" s="52">
+      <c r="N3" s="55">
         <v>9640</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="55">
         <v>9638</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="54">
+      <c r="P3" s="55"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y3" s="54">
+      <c r="Y3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z3" s="55">
+      <c r="Z3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA3" s="55">
+      <c r="AA3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="55">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI3" s="55">
+      <c r="AI3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ3" s="55">
+      <c r="AJ3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK3" s="55">
+      <c r="AK3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL3" s="55">
+      <c r="AL3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM3" s="55">
+      <c r="AM3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN3" s="49">
+      <c r="AN3" s="52">
         <v>1</v>
       </c>
-      <c r="AO3" s="49">
+      <c r="AO3" s="52">
         <f>AO3</f>
       </c>
-      <c r="AP3" s="55">
+      <c r="AP3" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ3" s="55">
+      <c r="AQ3" s="61">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR3" s="55">
+      <c r="AR3" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS3" s="56" t="s">
+      <c r="AS3" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="AT3" s="56" t="s">
+      <c r="AT3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="49">
+      <c r="AU3" s="52">
         <v>5</v>
       </c>
-      <c r="AV3" s="49">
+      <c r="AV3" s="52">
         <v>0</v>
       </c>
-      <c r="AW3" s="49">
+      <c r="AW3" s="52">
         <v>500</v>
       </c>
-      <c r="AX3" s="49">
+      <c r="AX3" s="52">
         <v>0</v>
       </c>
-      <c r="AY3" s="49">
+      <c r="AY3" s="52">
         <v>100</v>
       </c>
-      <c r="AZ3" s="49">
+      <c r="AZ3" s="52">
         <v>0</v>
       </c>
-      <c r="BA3" s="49">
+      <c r="BA3" s="52">
         <v>0</v>
       </c>
-      <c r="BB3" s="49">
+      <c r="BB3" s="52">
         <v>0</v>
       </c>
       <c r="BC3" s="4">
@@ -6125,168 +6187,169 @@
       <c r="BD3" s="4">
         <v>1</v>
       </c>
-      <c r="BE3" s="49">
+      <c r="BE3" s="52">
         <v>30</v>
       </c>
-      <c r="BF3" s="49">
+      <c r="BF3" s="52">
         <v>40</v>
       </c>
-      <c r="BG3" s="58">
+      <c r="BG3" s="62">
         <v>1.5</v>
       </c>
-      <c r="BH3" s="58">
+      <c r="BH3" s="62">
         <v>0.1</v>
       </c>
-      <c r="BI3" s="59">
+      <c r="BI3" s="61">
         <v>500</v>
       </c>
-      <c r="BJ3" s="56" t="s">
-        <v>1528</v>
-      </c>
-      <c r="BK3" s="49">
+      <c r="BJ3" s="59" t="s">
+        <v>1529</v>
+      </c>
+      <c r="BK3" s="52">
         <v>70</v>
       </c>
-      <c r="BL3" s="55">
+      <c r="BL3" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM3" s="55">
+      <c r="BM3" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN3" s="60"/>
+      <c r="BN3" s="63"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="61">
+      <c r="BR3" s="31"/>
+      <c r="BS3" s="64">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="46" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="A4" s="49" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B4" s="50">
         <v>1</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="51">
         <f>C4&amp;"_1"</f>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="51">
         <f>D4</f>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="52">
         <v>1</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>1362</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="51">
+      <c r="H4" s="49"/>
+      <c r="I4" s="54">
         <v>1</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="52">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="55">
         <v>9641</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="56">
         <v>9639</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="55">
         <v>9640</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="55">
         <v>9638</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="54">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z4" s="55">
+      <c r="Z4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA4" s="55">
+      <c r="AA4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="55">
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI4" s="55">
+      <c r="AI4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ4" s="55">
+      <c r="AJ4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK4" s="55">
+      <c r="AK4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL4" s="55">
+      <c r="AL4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM4" s="55">
+      <c r="AM4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN4" s="49">
+      <c r="AN4" s="52">
         <v>1</v>
       </c>
-      <c r="AO4" s="49">
+      <c r="AO4" s="52">
         <f>AO4</f>
       </c>
-      <c r="AP4" s="55">
+      <c r="AP4" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ4" s="55">
+      <c r="AQ4" s="61">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR4" s="55">
+      <c r="AR4" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS4" s="56" t="s">
+      <c r="AS4" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="AT4" s="56" t="s">
+      <c r="AT4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="49">
+      <c r="AU4" s="52">
         <v>5</v>
       </c>
-      <c r="AV4" s="49">
+      <c r="AV4" s="52">
         <v>0</v>
       </c>
-      <c r="AW4" s="49">
-        <v>10000</v>
-      </c>
-      <c r="AX4" s="49">
+      <c r="AW4" s="52">
+        <v>100000</v>
+      </c>
+      <c r="AX4" s="52">
         <v>1000</v>
       </c>
-      <c r="AY4" s="49">
+      <c r="AY4" s="52">
         <v>2000</v>
       </c>
-      <c r="AZ4" s="49">
+      <c r="AZ4" s="52">
         <v>1000</v>
       </c>
-      <c r="BA4" s="49">
+      <c r="BA4" s="52">
         <v>0</v>
       </c>
-      <c r="BB4" s="49">
+      <c r="BB4" s="52">
         <v>0</v>
       </c>
       <c r="BC4" s="4">
@@ -6295,178 +6358,179 @@
       <c r="BD4" s="4">
         <v>1</v>
       </c>
-      <c r="BE4" s="49">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="49">
+      <c r="BE4" s="52">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="52">
         <v>100</v>
       </c>
-      <c r="BG4" s="58">
+      <c r="BG4" s="62">
         <v>0.5</v>
       </c>
-      <c r="BH4" s="58">
+      <c r="BH4" s="62">
         <v>0.1</v>
       </c>
-      <c r="BI4" s="59">
+      <c r="BI4" s="61">
         <v>100</v>
       </c>
-      <c r="BJ4" s="56" t="s">
-        <v>1528</v>
-      </c>
-      <c r="BK4" s="49">
+      <c r="BJ4" s="59" t="s">
+        <v>1529</v>
+      </c>
+      <c r="BK4" s="52">
         <v>70</v>
       </c>
-      <c r="BL4" s="55">
+      <c r="BL4" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM4" s="55">
+      <c r="BM4" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN4" s="60"/>
+      <c r="BN4" s="63"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
-      <c r="BR4" s="61">
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="64">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="46" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B5" s="47">
+      <c r="A5" s="49" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="51">
         <f>C5&amp;"_1"</f>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="51">
         <f>D5</f>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="52">
         <v>1</v>
       </c>
-      <c r="F5" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>1070</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="51">
+      <c r="H5" s="49"/>
+      <c r="I5" s="54">
         <v>1</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="52">
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="55">
         <v>6914</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="55">
         <v>8693</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="55">
         <v>8692</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="55">
         <v>16780</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="55">
         <v>18563</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="52">
         <v>12323</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5" s="52">
         <v>5412</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="54">
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z5" s="55">
+      <c r="Z5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA5" s="55">
+      <c r="AA5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB5" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AB5" s="53" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AC5" s="59" t="s">
         <v>1079</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="55">
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI5" s="55">
+      <c r="AI5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ5" s="55">
+      <c r="AJ5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK5" s="55">
+      <c r="AK5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL5" s="55">
+      <c r="AL5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM5" s="55">
+      <c r="AM5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN5" s="49">
+      <c r="AN5" s="52">
         <v>1</v>
       </c>
-      <c r="AO5" s="49">
+      <c r="AO5" s="52">
         <f>AO5</f>
       </c>
-      <c r="AP5" s="55">
+      <c r="AP5" s="58">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ5" s="55">
+      <c r="AQ5" s="61">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR5" s="55">
+      <c r="AR5" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS5" s="56" t="s">
+      <c r="AS5" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="AT5" s="56" t="s">
+      <c r="AT5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AU5" s="49">
+      <c r="AU5" s="52">
         <v>5</v>
       </c>
-      <c r="AV5" s="49">
+      <c r="AV5" s="52">
         <v>0</v>
       </c>
-      <c r="AW5" s="49">
+      <c r="AW5" s="52">
         <v>500</v>
       </c>
-      <c r="AX5" s="49">
+      <c r="AX5" s="52">
         <v>0</v>
       </c>
-      <c r="AY5" s="49">
+      <c r="AY5" s="52">
         <v>2000</v>
       </c>
-      <c r="AZ5" s="49">
+      <c r="AZ5" s="52">
         <v>0</v>
       </c>
-      <c r="BA5" s="49">
+      <c r="BA5" s="52">
         <v>0</v>
       </c>
-      <c r="BB5" s="49">
+      <c r="BB5" s="52">
         <v>0</v>
       </c>
       <c r="BC5" s="4">
@@ -6475,34 +6539,34 @@
       <c r="BD5" s="4">
         <v>1</v>
       </c>
-      <c r="BE5" s="49">
+      <c r="BE5" s="52">
         <v>30</v>
       </c>
-      <c r="BF5" s="49">
+      <c r="BF5" s="52">
         <v>40</v>
       </c>
-      <c r="BG5" s="58">
+      <c r="BG5" s="62">
         <v>1.5</v>
       </c>
-      <c r="BH5" s="58">
+      <c r="BH5" s="62">
         <v>0.1</v>
       </c>
-      <c r="BI5" s="59">
+      <c r="BI5" s="61">
         <v>500</v>
       </c>
-      <c r="BJ5" s="56" t="s">
-        <v>1528</v>
-      </c>
-      <c r="BK5" s="49">
+      <c r="BJ5" s="59" t="s">
+        <v>1529</v>
+      </c>
+      <c r="BK5" s="52">
         <v>70</v>
       </c>
-      <c r="BL5" s="55">
+      <c r="BL5" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM5" s="55">
+      <c r="BM5" s="58">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN5" s="60"/>
+      <c r="BN5" s="63"/>
       <c r="BO5" s="1" t="s">
         <v>1073</v>
       </c>
@@ -6512,127 +6576,126 @@
       <c r="BQ5" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="BR5" s="61">
+      <c r="BR5" s="31"/>
+      <c r="BS5" s="64">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="46" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B6" s="47">
+      <c r="A6" s="49" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B6" s="50">
         <v>1</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="49">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="52">
         <v>1</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>1533</v>
-      </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="51">
+      <c r="F6" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="54">
         <v>1</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="54">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y6" s="54">
+      <c r="Y6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z6" s="55">
+      <c r="Z6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA6" s="55">
+      <c r="AA6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB6" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AB6" s="53" t="s">
         <v>1535</v>
       </c>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="55">
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI6" s="55">
+      <c r="AI6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ6" s="55">
+      <c r="AJ6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK6" s="55">
+      <c r="AK6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL6" s="55">
+      <c r="AL6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM6" s="55">
+      <c r="AM6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN6" s="49">
+      <c r="AN6" s="52">
         <v>0</v>
       </c>
-      <c r="AO6" s="49">
+      <c r="AO6" s="52">
         <f>AO6</f>
       </c>
-      <c r="AP6" s="55">
+      <c r="AP6" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ6" s="55">
+      <c r="AQ6" s="61">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR6" s="55">
+      <c r="AR6" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS6" s="56" t="s">
+      <c r="AS6" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="AT6" s="56" t="s">
+      <c r="AT6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AU6" s="49">
+      <c r="AU6" s="52">
         <v>0</v>
       </c>
-      <c r="AV6" s="49">
+      <c r="AV6" s="52">
         <v>0</v>
       </c>
-      <c r="AW6" s="49">
+      <c r="AW6" s="52">
         <v>1</v>
       </c>
-      <c r="AX6" s="49">
+      <c r="AX6" s="52">
         <v>0</v>
       </c>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49">
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52">
         <v>0</v>
       </c>
-      <c r="BA6" s="49">
+      <c r="BA6" s="52">
         <v>0</v>
       </c>
-      <c r="BB6" s="49">
+      <c r="BB6" s="52">
         <v>0</v>
       </c>
       <c r="BC6" s="4">
@@ -6641,34 +6704,34 @@
       <c r="BD6" s="4">
         <v>1</v>
       </c>
-      <c r="BE6" s="49">
+      <c r="BE6" s="52">
         <v>30</v>
       </c>
-      <c r="BF6" s="49">
+      <c r="BF6" s="52">
         <v>40</v>
       </c>
-      <c r="BG6" s="58">
+      <c r="BG6" s="62">
         <v>1</v>
       </c>
-      <c r="BH6" s="58">
+      <c r="BH6" s="62">
         <v>0.1</v>
       </c>
       <c r="BI6" s="4">
         <v>128</v>
       </c>
-      <c r="BJ6" s="56" t="s">
+      <c r="BJ6" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="BK6" s="49">
+      <c r="BK6" s="52">
         <v>70</v>
       </c>
-      <c r="BL6" s="55">
+      <c r="BL6" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM6" s="55">
+      <c r="BM6" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN6" s="60"/>
+      <c r="BN6" s="63"/>
       <c r="BO6" s="1" t="s">
         <v>1073</v>
       </c>
@@ -6678,598 +6741,1066 @@
       <c r="BQ6" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="BR6" s="61">
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="64">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="46" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="49" t="s">
         <v>1537</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="50">
         <v>1</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="49">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="52">
         <v>1</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="53" t="s">
         <v>1538</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="51">
+      <c r="G7" s="53" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="54">
         <v>1</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="54">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y7" s="54">
+      <c r="Y7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z7" s="55">
+      <c r="Z7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA7" s="55">
+      <c r="AA7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="55">
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI7" s="55">
+      <c r="AI7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ7" s="55">
+      <c r="AJ7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK7" s="55">
+      <c r="AK7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL7" s="55">
+      <c r="AL7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM7" s="55">
+      <c r="AM7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN7" s="49">
+      <c r="AN7" s="52">
         <v>0</v>
       </c>
-      <c r="AO7" s="49">
+      <c r="AO7" s="52">
         <v>200</v>
       </c>
-      <c r="AP7" s="55">
+      <c r="AP7" s="58">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ7" s="55">
+      <c r="AQ7" s="61">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR7" s="55">
+      <c r="AR7" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS7" s="56" t="s">
+      <c r="AS7" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="AT7" s="56" t="s">
+      <c r="AT7" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AU7" s="49">
+      <c r="AU7" s="52">
         <v>0</v>
       </c>
-      <c r="AV7" s="49">
+      <c r="AV7" s="52">
         <v>0</v>
       </c>
-      <c r="AW7" s="49">
+      <c r="AW7" s="52">
         <v>1</v>
       </c>
-      <c r="AX7" s="49">
+      <c r="AX7" s="52">
         <v>0</v>
       </c>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49">
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52">
         <v>0</v>
       </c>
-      <c r="BA7" s="49">
+      <c r="BA7" s="52">
         <v>0</v>
       </c>
-      <c r="BB7" s="49">
+      <c r="BB7" s="52">
         <v>0</v>
       </c>
       <c r="BC7" s="4">
         <v>0</v>
       </c>
       <c r="BD7" s="4"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="58"/>
-      <c r="BH7" s="58"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="56" t="s">
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="BK7" s="49">
-        <v>50</v>
-      </c>
-      <c r="BL7" s="55">
+      <c r="BK7" s="52">
+        <v>70</v>
+      </c>
+      <c r="BL7" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM7" s="55">
+      <c r="BM7" s="58">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN7" s="60"/>
+      <c r="BN7" s="63"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
-      <c r="BR7" s="61">
+      <c r="BR7" s="65">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="64">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="62"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="4"/>
+      <c r="A8" s="49" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="54">
+        <v>1</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y8" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP8" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ8" s="61">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS8" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT8" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="52">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>0</v>
+      </c>
       <c r="BD8" s="4"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="65"/>
-      <c r="BH8" s="65"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="64"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="59" t="s">
+        <v>1543</v>
+      </c>
+      <c r="BK8" s="52">
+        <v>70</v>
+      </c>
+      <c r="BL8" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM8" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN8" s="63"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
-      <c r="BR8" s="4"/>
+      <c r="BR8" s="31"/>
+      <c r="BS8" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="62"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="63"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="63"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="63"/>
-      <c r="BC9" s="4"/>
+      <c r="A9" s="49" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B9" s="50">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="52">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y9" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP9" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ9" s="61">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS9" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="52">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="4">
+        <v>0</v>
+      </c>
       <c r="BD9" s="4"/>
-      <c r="BE9" s="63"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="64"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="59" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BK9" s="52">
+        <v>70</v>
+      </c>
+      <c r="BL9" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM9" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN9" s="63"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
-      <c r="BR9" s="4"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="62"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="63"/>
-      <c r="AO10" s="63"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="63"/>
-      <c r="AV10" s="63"/>
-      <c r="AW10" s="63"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="63"/>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="63"/>
-      <c r="BB10" s="63"/>
-      <c r="BC10" s="4"/>
+      <c r="A10" s="49" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="52">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="54">
+        <v>1</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y10" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP10" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ10" s="61">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS10" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT10" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="52">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>0</v>
+      </c>
       <c r="BD10" s="4"/>
-      <c r="BE10" s="63"/>
-      <c r="BF10" s="63"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="67"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="64"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="59" t="s">
+        <v>1543</v>
+      </c>
+      <c r="BK10" s="52">
+        <v>60</v>
+      </c>
+      <c r="BL10" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM10" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN10" s="63"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
-      <c r="BR10" s="4"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="63"/>
-      <c r="AO11" s="63"/>
-      <c r="AP11" s="63"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="63"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="63"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="63"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="63"/>
-      <c r="BC11" s="4"/>
+      <c r="A11" s="49" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B11" s="50">
+        <v>1</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="52">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y11" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP11" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ11" s="61">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS11" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT11" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="52">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="4">
+        <v>0</v>
+      </c>
       <c r="BD11" s="4"/>
-      <c r="BE11" s="63"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="65"/>
-      <c r="BH11" s="65"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="67"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="64"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="59" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BK11" s="52">
+        <v>50</v>
+      </c>
+      <c r="BL11" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM11" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN11" s="63"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
-      <c r="BR11" s="4"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="62"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="63"/>
-      <c r="AV12" s="63"/>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="4"/>
+      <c r="A12" s="49" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="52">
+        <v>1</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="54">
+        <v>1</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y12" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP12" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ12" s="61">
+        <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR12" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS12" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT12" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="52">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="52">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>0</v>
+      </c>
       <c r="BD12" s="4"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="63"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="4"/>
-      <c r="BN12" s="64"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="62"/>
+      <c r="BH12" s="62"/>
+      <c r="BI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="59" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BK12" s="52">
+        <v>70</v>
+      </c>
+      <c r="BL12" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM12" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN12" s="63"/>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
-      <c r="BR12" s="4"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="64">
+        <v>0</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="62"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="63"/>
-      <c r="AO13" s="63"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="63"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="63"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="63"/>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="63"/>
-      <c r="BC13" s="4"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="49" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="52">
+        <v>1</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="54">
+        <v>1</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y13" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB13" s="53" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AC13" s="59" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="52">
+        <v>200</v>
+      </c>
+      <c r="AP13" s="58">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ13" s="61">
+        <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR13" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS13" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT13" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="52">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="52">
+        <v>2000</v>
+      </c>
+      <c r="AX13" s="52">
+        <v>200</v>
+      </c>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="52">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="52">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>0</v>
+      </c>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="63"/>
-      <c r="BF13" s="63"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="63"/>
-      <c r="BJ13" s="67"/>
-      <c r="BK13" s="63"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="64"/>
+      <c r="BE13" s="52">
+        <v>300</v>
+      </c>
+      <c r="BF13" s="52">
+        <v>300</v>
+      </c>
+      <c r="BG13" s="62">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ13" s="59" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK13" s="52">
+        <v>120</v>
+      </c>
+      <c r="BL13" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM13" s="58">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN13" s="63"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
-      <c r="BR13" s="4"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="64">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="62"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -7280,68 +7811,69 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="63"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="63"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="63"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="63"/>
-      <c r="BJ14" s="67"/>
-      <c r="BK14" s="63"/>
-      <c r="BL14" s="64"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="68"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="70"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="31"/>
       <c r="BM14" s="4"/>
-      <c r="BN14" s="64"/>
+      <c r="BN14" s="31"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
-      <c r="BR14" s="4"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="62"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -7352,68 +7884,69 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="67"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="67"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="64"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="67"/>
+      <c r="BG15" s="68"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="67"/>
+      <c r="BJ15" s="70"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="31"/>
       <c r="BM15" s="4"/>
-      <c r="BN15" s="64"/>
+      <c r="BN15" s="31"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="1"/>
-      <c r="BR15" s="4"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="62"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -7424,68 +7957,69 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="64"/>
-      <c r="AJ16" s="64"/>
-      <c r="AK16" s="64"/>
-      <c r="AL16" s="64"/>
-      <c r="AM16" s="64"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="63"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="64"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="68"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="31"/>
       <c r="BM16" s="4"/>
-      <c r="BN16" s="64"/>
+      <c r="BN16" s="31"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
-      <c r="BR16" s="4"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="62"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -7496,68 +8030,69 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="64"/>
-      <c r="AK17" s="64"/>
-      <c r="AL17" s="64"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="67"/>
-      <c r="AS17" s="67"/>
-      <c r="AT17" s="67"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="31"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="67"/>
+      <c r="AP17" s="67"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="67"/>
+      <c r="AV17" s="67"/>
+      <c r="AW17" s="67"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="64"/>
+      <c r="BE17" s="67"/>
+      <c r="BF17" s="67"/>
+      <c r="BG17" s="68"/>
+      <c r="BH17" s="68"/>
+      <c r="BI17" s="67"/>
+      <c r="BJ17" s="70"/>
+      <c r="BK17" s="67"/>
+      <c r="BL17" s="31"/>
       <c r="BM17" s="4"/>
-      <c r="BN17" s="64"/>
+      <c r="BN17" s="31"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
-      <c r="BR17" s="4"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="62"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -7568,68 +8103,69 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="63"/>
-      <c r="AO18" s="63"/>
-      <c r="AP18" s="63"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="67"/>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="67"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="67"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="67"/>
+      <c r="AW18" s="67"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="67"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="64"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="67"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="31"/>
       <c r="BM18" s="4"/>
-      <c r="BN18" s="64"/>
+      <c r="BN18" s="31"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
-      <c r="BR18" s="4"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="62"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -7640,68 +8176,69 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="67"/>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="67"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="67"/>
+      <c r="AP19" s="67"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="67"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="67"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="64"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="67"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="67"/>
+      <c r="BJ19" s="70"/>
+      <c r="BK19" s="67"/>
+      <c r="BL19" s="31"/>
       <c r="BM19" s="4"/>
-      <c r="BN19" s="64"/>
+      <c r="BN19" s="31"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
-      <c r="BR19" s="4"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="62"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -7712,68 +8249,69 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="64"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="64"/>
-      <c r="AK20" s="64"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="64"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="67"/>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="67"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="67"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="70"/>
+      <c r="AS20" s="70"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="67"/>
+      <c r="AW20" s="67"/>
+      <c r="AX20" s="67"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="67"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="64"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="67"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="67"/>
+      <c r="BJ20" s="70"/>
+      <c r="BK20" s="67"/>
+      <c r="BL20" s="31"/>
       <c r="BM20" s="4"/>
-      <c r="BN20" s="64"/>
+      <c r="BN20" s="31"/>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
-      <c r="BR20" s="4"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="66"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -7784,55 +8322,348 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="64"/>
-      <c r="AJ21" s="64"/>
-      <c r="AK21" s="64"/>
-      <c r="AL21" s="64"/>
-      <c r="AM21" s="64"/>
-      <c r="AN21" s="63"/>
-      <c r="AO21" s="63"/>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="65"/>
-      <c r="AR21" s="67"/>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="67"/>
-      <c r="AU21" s="63"/>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="63"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="63"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="67"/>
+      <c r="AO21" s="67"/>
+      <c r="AP21" s="67"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="67"/>
+      <c r="AV21" s="67"/>
+      <c r="AW21" s="67"/>
+      <c r="AX21" s="67"/>
+      <c r="AY21" s="67"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="63"/>
-      <c r="BJ21" s="67"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="64"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="67"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="67"/>
+      <c r="BJ21" s="70"/>
+      <c r="BK21" s="67"/>
+      <c r="BL21" s="31"/>
       <c r="BM21" s="4"/>
-      <c r="BN21" s="64"/>
+      <c r="BN21" s="31"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
-      <c r="BR21" s="4"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="66"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="67"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="67"/>
+      <c r="AW22" s="67"/>
+      <c r="AX22" s="67"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="67"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="67"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="66"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="67"/>
+      <c r="AP23" s="67"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="70"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="67"/>
+      <c r="AV23" s="67"/>
+      <c r="AW23" s="67"/>
+      <c r="AX23" s="67"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="67"/>
+      <c r="BJ23" s="70"/>
+      <c r="BK23" s="67"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="31"/>
+      <c r="BS23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="66"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="67"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="70"/>
+      <c r="AS24" s="70"/>
+      <c r="AT24" s="70"/>
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="67"/>
+      <c r="AW24" s="67"/>
+      <c r="AX24" s="67"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="67"/>
+      <c r="BF24" s="67"/>
+      <c r="BG24" s="68"/>
+      <c r="BH24" s="68"/>
+      <c r="BI24" s="67"/>
+      <c r="BJ24" s="70"/>
+      <c r="BK24" s="67"/>
+      <c r="BL24" s="31"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="31"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="31"/>
+      <c r="BS24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+      <c r="A25" s="66"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="70"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="70"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="70"/>
+      <c r="BK25" s="67"/>
+      <c r="BL25" s="31"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="31"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/units_template.xlsx
+++ b/excels/units_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="1583">
   <si>
     <t>英雄名</t>
   </si>
@@ -4735,6 +4735,90 @@
   </si>
   <si>
     <t>DOTA_HULL_SIZE_HUGE</t>
+  </si>
+  <si>
+    <t>practice_melee</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_2021_dire/creep_2021_dire_melee.vmdl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>practice_ranged</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_2021_dire/creep_2021_dire_ranged.vmdl</t>
+  </si>
+  <si>
+    <t>jing_ji_lin_boss</t>
+  </si>
+  <si>
+    <t>models/items/furion/treant/the_ancient_guardian_the_ancient_treants/the_ancient_guardian_the_ancient_treants.vmdl</t>
+  </si>
+  <si>
+    <t>jing_ji_lin_creep</t>
+  </si>
+  <si>
+    <t>you_tan_guard</t>
+  </si>
+  <si>
+    <t>ling_yan_gu_boss</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_golem_a/neutral_creep_golem_a.vmdl</t>
+  </si>
+  <si>
+    <t>ling_yan_gu_creep</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_golem_b/n_creep_golem_b.vmdl</t>
+  </si>
+  <si>
+    <t>di_huo_chi_guard</t>
+  </si>
+  <si>
+    <t>models/heroes/invoker/forge_spirit.vmdl</t>
+  </si>
+  <si>
+    <t>particles/units/heroes/hero_invoker_kid/invoker_kid_forged_spirit_projectile.vpcf</t>
+  </si>
+  <si>
+    <t>fei_qi_kuang_mai_guard</t>
+  </si>
+  <si>
+    <t>models/creeps/lane_creeps/creep_2021_radiant/creep_2021_radiant_melee.vmdl</t>
+  </si>
+  <si>
+    <t>shang_gu_zhan_chang_ghost</t>
+  </si>
+  <si>
+    <t>models/items/wraith_king/arcana/wk_arcana_skeleton.vmdl</t>
+  </si>
+  <si>
+    <t>black_dragon</t>
+  </si>
+  <si>
+    <t>models/creeps/neutral_creeps/n_creep_black_dragon/n_creep_black_dragon.vmdl</t>
+  </si>
+  <si>
+    <t>particles/neutral_fx/black_dragon_attack.vpcf</t>
+  </si>
+  <si>
+    <t>yuan_ling_zhao_ze_boss</t>
+  </si>
+  <si>
+    <t>particles/econ/items/necrolyte/necronub_base_attack/necrolyte_base_attack_ka.vpcf</t>
+  </si>
+  <si>
+    <t>tong_tian_feng_guard</t>
+  </si>
+  <si>
+    <t>models/creeps/darkreef/gaoler/darkreef_gaoler.vmdl</t>
+  </si>
+  <si>
+    <t>hua_xue_zhao_ze_guard</t>
   </si>
 </sst>
 </file>
@@ -5074,7 +5158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5165,9 +5249,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5268,14 +5349,23 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5603,7 +5693,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BS25"/>
+  <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A3" ySplit="2" xSplit="0"/>
@@ -5611,17 +5701,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="17.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="28.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="71" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="72" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="44.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="73" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="74" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="46.57642857142857" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="4.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="73" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="72" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="72" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="75" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="74" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="74" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="12" width="28.290714285714284" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="12" width="12.719285714285713" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="12" width="13.290714285714287" customWidth="1" bestFit="1"/>
@@ -5632,55 +5722,55 @@
     <col min="19" max="19" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="12" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="72" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="72" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="72" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="72" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="74" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="72" width="39.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="72" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="72" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="72" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="72" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="72" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="72" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="72" width="52.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="72" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="72" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="72" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="72" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="72" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="71" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="71" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="75" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="71" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="75" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="75" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="75" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="71" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="71" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="71" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="71" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="74" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="74" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="74" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="74" width="47.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="76" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="74" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="74" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="74" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="74" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="74" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="74" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="74" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="74" width="52.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="74" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="74" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="74" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="74" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="74" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="73" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="73" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="77" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="73" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="77" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="77" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="77" width="36.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="73" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="73" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="73" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="73" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="73" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="73" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="73" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="73" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="55" max="55" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="56" max="56" style="12" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="71" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="71" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="73" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="73" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="71" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="75" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="71" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="72" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="74" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="72" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="73" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="73" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="75" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="75" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="73" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="77" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="73" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="74" width="74.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="12" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="74" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="67" max="67" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="68" max="68" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="69" max="69" style="9" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="72" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="71" max="71" style="12" width="11.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5839,7 +5929,7 @@
       <c r="BL1" s="27" t="s">
         <v>1474</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BM1" s="26" t="s">
         <v>1475</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -5848,156 +5938,156 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-      <c r="BR1" s="31"/>
+      <c r="BR1" s="4"/>
       <c r="BS1" s="3" t="s">
         <v>1477</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1478</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>1479</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33" t="s">
         <v>1480</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>1481</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>1482</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>1483</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>1484</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>1485</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>1486</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="38">
         <v>1</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="38">
         <v>2</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="38">
         <v>3</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="38">
         <v>4</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="38">
         <v>5</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="38">
         <v>6</v>
       </c>
-      <c r="R2" s="39">
+      <c r="R2" s="38">
         <v>7</v>
       </c>
-      <c r="S2" s="39">
+      <c r="S2" s="38">
         <v>8</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="38">
         <v>9</v>
       </c>
-      <c r="U2" s="39">
+      <c r="U2" s="38">
         <v>10</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>1487</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>1487</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="37" t="s">
         <v>1488</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="37" t="s">
         <v>1489</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="39" t="s">
         <v>1490</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="37" t="s">
         <v>1491</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="40" t="s">
         <v>1492</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="40" t="s">
         <v>1493</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" s="40" t="s">
         <v>1494</v>
       </c>
-      <c r="AE2" s="41" t="s">
+      <c r="AE2" s="40" t="s">
         <v>1495</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="40" t="s">
         <v>1496</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="40" t="s">
         <v>1497</v>
       </c>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42" t="s">
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41" t="s">
         <v>1498</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="42" t="s">
         <v>1499</v>
       </c>
-      <c r="AP2" s="35" t="s">
+      <c r="AP2" s="34" t="s">
         <v>1500</v>
       </c>
-      <c r="AQ2" s="44" t="s">
+      <c r="AQ2" s="43" t="s">
         <v>1501</v>
       </c>
-      <c r="AR2" s="45" t="s">
+      <c r="AR2" s="44" t="s">
         <v>1502</v>
       </c>
-      <c r="AS2" s="35" t="s">
+      <c r="AS2" s="34" t="s">
         <v>1503</v>
       </c>
-      <c r="AT2" s="46" t="s">
+      <c r="AT2" s="45" t="s">
         <v>1504</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AU2" s="42" t="s">
         <v>1505</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="42" t="s">
         <v>1506</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="42" t="s">
         <v>1507</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" s="42" t="s">
         <v>1508</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AY2" s="42" t="s">
         <v>1509</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="AZ2" s="42" t="s">
         <v>1510</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BA2" s="42" t="s">
         <v>1511</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BB2" s="42" t="s">
         <v>1512</v>
       </c>
       <c r="BC2" s="3" t="s">
@@ -6006,31 +6096,31 @@
       <c r="BD2" s="3" t="s">
         <v>1514</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BE2" s="33" t="s">
         <v>1515</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BF2" s="33" t="s">
         <v>1516</v>
       </c>
-      <c r="BG2" s="47" t="s">
+      <c r="BG2" s="46" t="s">
         <v>1517</v>
       </c>
-      <c r="BH2" s="48" t="s">
+      <c r="BH2" s="47" t="s">
         <v>1518</v>
       </c>
-      <c r="BI2" s="34" t="s">
+      <c r="BI2" s="33" t="s">
         <v>1519</v>
       </c>
-      <c r="BJ2" s="46" t="s">
+      <c r="BJ2" s="45" t="s">
         <v>1520</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BK2" s="33" t="s">
         <v>1521</v>
       </c>
-      <c r="BL2" s="45" t="s">
+      <c r="BL2" s="44" t="s">
         <v>1522</v>
       </c>
-      <c r="BM2" s="45" t="s">
+      <c r="BM2" s="43" t="s">
         <v>1523</v>
       </c>
       <c r="BN2" s="1" t="s">
@@ -6045,7 +6135,7 @@
       <c r="BQ2" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="BR2" s="31" t="s">
+      <c r="BR2" s="3" t="s">
         <v>1525</v>
       </c>
       <c r="BS2" s="3" t="s">
@@ -6053,132 +6143,132 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>1527</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="50">
         <f>C3&amp;"_1"</f>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="50">
         <f>D3</f>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="51">
         <v>1</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="52" t="s">
         <v>1362</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="54">
+      <c r="H3" s="48"/>
+      <c r="I3" s="53">
         <v>1</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="55">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="54">
         <v>9641</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="55">
         <v>9639</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="54">
         <v>9640</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="54">
         <v>9638</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="57">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="58">
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI3" s="58">
+      <c r="AI3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ3" s="58">
+      <c r="AJ3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK3" s="58">
+      <c r="AK3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL3" s="58">
+      <c r="AL3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM3" s="58">
+      <c r="AM3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN3" s="52">
+      <c r="AN3" s="51">
         <v>1</v>
       </c>
-      <c r="AO3" s="52">
+      <c r="AO3" s="51">
         <f>AO3</f>
       </c>
-      <c r="AP3" s="58">
+      <c r="AP3" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ3" s="61">
+      <c r="AQ3" s="60">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR3" s="58">
+      <c r="AR3" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS3" s="59" t="s">
+      <c r="AS3" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT3" s="59" t="s">
+      <c r="AT3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="52">
+      <c r="AU3" s="51">
         <v>5</v>
       </c>
-      <c r="AV3" s="52">
+      <c r="AV3" s="51">
         <v>0</v>
       </c>
-      <c r="AW3" s="52">
+      <c r="AW3" s="51">
         <v>500</v>
       </c>
-      <c r="AX3" s="52">
+      <c r="AX3" s="51">
         <v>0</v>
       </c>
-      <c r="AY3" s="52">
+      <c r="AY3" s="51">
         <v>100</v>
       </c>
-      <c r="AZ3" s="52">
+      <c r="AZ3" s="51">
         <v>0</v>
       </c>
-      <c r="BA3" s="52">
+      <c r="BA3" s="51">
         <v>0</v>
       </c>
-      <c r="BB3" s="52">
+      <c r="BB3" s="51">
         <v>0</v>
       </c>
       <c r="BC3" s="4">
@@ -6187,169 +6277,169 @@
       <c r="BD3" s="4">
         <v>1</v>
       </c>
-      <c r="BE3" s="52">
+      <c r="BE3" s="51">
         <v>30</v>
       </c>
-      <c r="BF3" s="52">
+      <c r="BF3" s="51">
         <v>40</v>
       </c>
-      <c r="BG3" s="62">
+      <c r="BG3" s="61">
         <v>1.5</v>
       </c>
-      <c r="BH3" s="62">
+      <c r="BH3" s="61">
         <v>0.1</v>
       </c>
-      <c r="BI3" s="61">
+      <c r="BI3" s="60">
         <v>500</v>
       </c>
-      <c r="BJ3" s="59" t="s">
+      <c r="BJ3" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="BK3" s="52">
+      <c r="BK3" s="51">
         <v>70</v>
       </c>
-      <c r="BL3" s="58">
+      <c r="BL3" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM3" s="58">
+      <c r="BM3" s="60">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D3, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN3" s="63"/>
+      <c r="BN3" s="62"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="64">
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="63">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>1530</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <f>C4&amp;"_1"</f>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <f>D4</f>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="51">
         <v>1</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>1362</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="54">
+      <c r="H4" s="48"/>
+      <c r="I4" s="53">
         <v>1</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="55">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="54">
         <v>9641</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="55">
         <v>9639</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="54">
         <v>9640</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="54">
         <v>9638</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="57">
+      <c r="P4" s="54"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y4" s="57">
+      <c r="Y4" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA4" s="58">
+      <c r="AA4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="58">
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI4" s="58">
+      <c r="AI4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ4" s="58">
+      <c r="AJ4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK4" s="58">
+      <c r="AK4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL4" s="58">
+      <c r="AL4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM4" s="58">
+      <c r="AM4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN4" s="52">
+      <c r="AN4" s="51">
         <v>1</v>
       </c>
-      <c r="AO4" s="52">
+      <c r="AO4" s="51">
         <f>AO4</f>
       </c>
-      <c r="AP4" s="58">
+      <c r="AP4" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ4" s="61">
+      <c r="AQ4" s="60">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR4" s="58">
+      <c r="AR4" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS4" s="59" t="s">
+      <c r="AS4" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT4" s="59" t="s">
+      <c r="AT4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="52">
+      <c r="AU4" s="51">
         <v>5</v>
       </c>
-      <c r="AV4" s="52">
+      <c r="AV4" s="51">
         <v>0</v>
       </c>
-      <c r="AW4" s="52">
+      <c r="AW4" s="51">
         <v>100000</v>
       </c>
-      <c r="AX4" s="52">
+      <c r="AX4" s="51">
         <v>1000</v>
       </c>
-      <c r="AY4" s="52">
+      <c r="AY4" s="51">
         <v>2000</v>
       </c>
-      <c r="AZ4" s="52">
+      <c r="AZ4" s="51">
         <v>1000</v>
       </c>
-      <c r="BA4" s="52">
+      <c r="BA4" s="51">
         <v>0</v>
       </c>
-      <c r="BB4" s="52">
+      <c r="BB4" s="51">
         <v>0</v>
       </c>
       <c r="BC4" s="4">
@@ -6358,179 +6448,179 @@
       <c r="BD4" s="4">
         <v>1</v>
       </c>
-      <c r="BE4" s="52">
+      <c r="BE4" s="51">
         <v>10</v>
       </c>
-      <c r="BF4" s="52">
+      <c r="BF4" s="51">
         <v>100</v>
       </c>
-      <c r="BG4" s="62">
+      <c r="BG4" s="61">
         <v>0.5</v>
       </c>
-      <c r="BH4" s="62">
+      <c r="BH4" s="61">
         <v>0.1</v>
       </c>
-      <c r="BI4" s="61">
+      <c r="BI4" s="60">
         <v>100</v>
       </c>
-      <c r="BJ4" s="59" t="s">
+      <c r="BJ4" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="BK4" s="52">
+      <c r="BK4" s="51">
         <v>70</v>
       </c>
-      <c r="BL4" s="58">
+      <c r="BL4" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM4" s="58">
+      <c r="BM4" s="60">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D4, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN4" s="63"/>
+      <c r="BN4" s="62"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="64">
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="63">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>1531</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <f>C5&amp;"_1"</f>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <f>D5</f>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="51">
         <v>1</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>1070</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="54">
+      <c r="H5" s="48"/>
+      <c r="I5" s="53">
         <v>1</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="55">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="54">
         <v>6914</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="54">
         <v>8693</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="54">
         <v>8692</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="54">
         <v>16780</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="54">
         <v>18563</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="51">
         <v>12323</v>
       </c>
-      <c r="R5" s="52">
+      <c r="R5" s="51">
         <v>5412</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="57">
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 4, FALSE())</f>
       </c>
-      <c r="Y5" s="57">
+      <c r="Y5" s="56">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 5, FALSE())</f>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 6, FALSE())</f>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 7, FALSE())</f>
       </c>
-      <c r="AB5" s="53" t="s">
+      <c r="AB5" s="52" t="s">
         <v>1532</v>
       </c>
-      <c r="AC5" s="59" t="s">
+      <c r="AC5" s="58" t="s">
         <v>1079</v>
       </c>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="58">
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 8, FALSE())</f>
       </c>
-      <c r="AI5" s="58">
+      <c r="AI5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 9, FALSE())</f>
       </c>
-      <c r="AJ5" s="58">
+      <c r="AJ5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 10, FALSE())</f>
       </c>
-      <c r="AK5" s="58">
+      <c r="AK5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 11, FALSE())</f>
       </c>
-      <c r="AL5" s="58">
+      <c r="AL5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 12, FALSE())</f>
       </c>
-      <c r="AM5" s="58">
+      <c r="AM5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 13, FALSE())</f>
       </c>
-      <c r="AN5" s="52">
+      <c r="AN5" s="51">
         <v>1</v>
       </c>
-      <c r="AO5" s="52">
+      <c r="AO5" s="51">
         <f>AO5</f>
       </c>
-      <c r="AP5" s="58">
+      <c r="AP5" s="57">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 15, FALSE())</f>
       </c>
-      <c r="AQ5" s="61">
+      <c r="AQ5" s="60">
         <f>VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 16, FALSE())</f>
       </c>
-      <c r="AR5" s="58">
+      <c r="AR5" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 17, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 17, FALSE()))</f>
       </c>
-      <c r="AS5" s="59" t="s">
+      <c r="AS5" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT5" s="59" t="s">
+      <c r="AT5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU5" s="52">
+      <c r="AU5" s="51">
         <v>5</v>
       </c>
-      <c r="AV5" s="52">
+      <c r="AV5" s="51">
         <v>0</v>
       </c>
-      <c r="AW5" s="52">
-        <v>500</v>
-      </c>
-      <c r="AX5" s="52">
+      <c r="AW5" s="51">
+        <v>9999999</v>
+      </c>
+      <c r="AX5" s="51">
+        <v>9999</v>
+      </c>
+      <c r="AY5" s="51">
+        <v>2000</v>
+      </c>
+      <c r="AZ5" s="51">
         <v>0</v>
       </c>
-      <c r="AY5" s="52">
-        <v>2000</v>
-      </c>
-      <c r="AZ5" s="52">
+      <c r="BA5" s="51">
         <v>0</v>
       </c>
-      <c r="BA5" s="52">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="52">
+      <c r="BB5" s="51">
         <v>0</v>
       </c>
       <c r="BC5" s="4">
@@ -6539,34 +6629,34 @@
       <c r="BD5" s="4">
         <v>1</v>
       </c>
-      <c r="BE5" s="52">
+      <c r="BE5" s="51">
         <v>30</v>
       </c>
-      <c r="BF5" s="52">
+      <c r="BF5" s="51">
         <v>40</v>
       </c>
-      <c r="BG5" s="62">
+      <c r="BG5" s="61">
         <v>1.5</v>
       </c>
-      <c r="BH5" s="62">
+      <c r="BH5" s="61">
         <v>0.1</v>
       </c>
-      <c r="BI5" s="61">
+      <c r="BI5" s="60">
         <v>500</v>
       </c>
-      <c r="BJ5" s="59" t="s">
+      <c r="BJ5" s="58" t="s">
         <v>1529</v>
       </c>
-      <c r="BK5" s="52">
+      <c r="BK5" s="51">
         <v>70</v>
       </c>
-      <c r="BL5" s="58">
+      <c r="BL5" s="57">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 22, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 22, FALSE()))</f>
       </c>
-      <c r="BM5" s="58">
+      <c r="BM5" s="60">
         <f>IF(VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 23, FALSE())="nil", "", VLOOKUP("npc_dota_hero_"&amp;$D5, OriginalData!$A$2:$W$122, 23, FALSE()))</f>
       </c>
-      <c r="BN5" s="63"/>
+      <c r="BN5" s="62"/>
       <c r="BO5" s="1" t="s">
         <v>1073</v>
       </c>
@@ -6576,126 +6666,126 @@
       <c r="BQ5" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="64">
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="63">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>1533</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="52">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="51">
         <v>1</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>1534</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="54">
+      <c r="H6" s="48"/>
+      <c r="I6" s="53">
         <v>1</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="57">
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y6" s="57">
+      <c r="Y6" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB6" s="53" t="s">
+      <c r="AB6" s="52" t="s">
         <v>1535</v>
       </c>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="58">
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI6" s="58">
+      <c r="AI6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ6" s="58">
+      <c r="AJ6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK6" s="58">
+      <c r="AK6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL6" s="58">
+      <c r="AL6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM6" s="58">
+      <c r="AM6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN6" s="52">
+      <c r="AN6" s="51">
         <v>0</v>
       </c>
-      <c r="AO6" s="52">
+      <c r="AO6" s="51">
         <f>AO6</f>
       </c>
-      <c r="AP6" s="58">
+      <c r="AP6" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ6" s="61">
+      <c r="AQ6" s="60">
         <f>vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR6" s="58">
+      <c r="AR6" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS6" s="59" t="s">
+      <c r="AS6" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT6" s="59" t="s">
+      <c r="AT6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU6" s="52">
+      <c r="AU6" s="51">
         <v>0</v>
       </c>
-      <c r="AV6" s="52">
+      <c r="AV6" s="51">
         <v>0</v>
       </c>
-      <c r="AW6" s="52">
+      <c r="AW6" s="51">
         <v>1</v>
       </c>
-      <c r="AX6" s="52">
+      <c r="AX6" s="51">
         <v>0</v>
       </c>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="52">
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51">
         <v>0</v>
       </c>
-      <c r="BA6" s="52">
+      <c r="BA6" s="51">
         <v>0</v>
       </c>
-      <c r="BB6" s="52">
+      <c r="BB6" s="51">
         <v>0</v>
       </c>
       <c r="BC6" s="4">
@@ -6704,34 +6794,34 @@
       <c r="BD6" s="4">
         <v>1</v>
       </c>
-      <c r="BE6" s="52">
+      <c r="BE6" s="51">
         <v>30</v>
       </c>
-      <c r="BF6" s="52">
+      <c r="BF6" s="51">
         <v>40</v>
       </c>
-      <c r="BG6" s="62">
+      <c r="BG6" s="61">
         <v>1</v>
       </c>
-      <c r="BH6" s="62">
+      <c r="BH6" s="61">
         <v>0.1</v>
       </c>
       <c r="BI6" s="4">
         <v>128</v>
       </c>
-      <c r="BJ6" s="59" t="s">
+      <c r="BJ6" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="BK6" s="52">
+      <c r="BK6" s="51">
         <v>70</v>
       </c>
-      <c r="BL6" s="58">
+      <c r="BL6" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM6" s="58">
+      <c r="BM6" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D6, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN6" s="63"/>
+      <c r="BN6" s="62"/>
       <c r="BO6" s="1" t="s">
         <v>1073</v>
       </c>
@@ -6741,1929 +6831,4173 @@
       <c r="BQ6" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="64">
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="63">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>1537</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>1</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="52">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="51">
         <v>1</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>1538</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="52" t="s">
         <v>1539</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="54">
+      <c r="H7" s="48"/>
+      <c r="I7" s="53">
         <v>1</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="57">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y7" s="57">
+      <c r="Y7" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z7" s="58">
+      <c r="Z7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA7" s="58">
+      <c r="AA7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="58">
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI7" s="58">
+      <c r="AI7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ7" s="58">
+      <c r="AJ7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK7" s="58">
+      <c r="AK7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL7" s="58">
+      <c r="AL7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM7" s="58">
+      <c r="AM7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN7" s="52">
+      <c r="AN7" s="51">
         <v>0</v>
       </c>
-      <c r="AO7" s="52">
+      <c r="AO7" s="51">
         <v>200</v>
       </c>
-      <c r="AP7" s="58">
+      <c r="AP7" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ7" s="61">
+      <c r="AQ7" s="60">
         <f>vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR7" s="58">
+      <c r="AR7" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS7" s="59" t="s">
+      <c r="AS7" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT7" s="59" t="s">
+      <c r="AT7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU7" s="52">
+      <c r="AU7" s="51">
         <v>0</v>
       </c>
-      <c r="AV7" s="52">
+      <c r="AV7" s="51">
         <v>0</v>
       </c>
-      <c r="AW7" s="52">
+      <c r="AW7" s="51">
         <v>1</v>
       </c>
-      <c r="AX7" s="52">
+      <c r="AX7" s="51">
         <v>0</v>
       </c>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52">
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51">
         <v>0</v>
       </c>
-      <c r="BA7" s="52">
+      <c r="BA7" s="51">
         <v>0</v>
       </c>
-      <c r="BB7" s="52">
+      <c r="BB7" s="51">
         <v>0</v>
       </c>
       <c r="BC7" s="4">
         <v>0</v>
       </c>
       <c r="BD7" s="4"/>
-      <c r="BE7" s="52"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="62"/>
-      <c r="BH7" s="62"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
       <c r="BI7" s="4">
         <v>0</v>
       </c>
-      <c r="BJ7" s="59" t="s">
+      <c r="BJ7" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="BK7" s="52">
+      <c r="BK7" s="51">
         <v>70</v>
       </c>
-      <c r="BL7" s="58">
+      <c r="BL7" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM7" s="58">
+      <c r="BM7" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D7, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN7" s="63"/>
+      <c r="BN7" s="62"/>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
-      <c r="BR7" s="65">
+      <c r="BR7" s="4">
         <v>1</v>
       </c>
-      <c r="BS7" s="64">
+      <c r="BS7" s="63">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>1540</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>1</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="52">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="51">
         <v>1</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="52" t="s">
         <v>1541</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="54">
+      <c r="H8" s="48"/>
+      <c r="I8" s="53">
         <v>1</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="57">
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y8" s="57">
+      <c r="Y8" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z8" s="58">
+      <c r="Z8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA8" s="58">
+      <c r="AA8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="58" t="s">
         <v>1542</v>
       </c>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="58">
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="58"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI8" s="58">
+      <c r="AI8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ8" s="58">
+      <c r="AJ8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK8" s="58">
+      <c r="AK8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL8" s="58">
+      <c r="AL8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM8" s="58">
+      <c r="AM8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN8" s="52">
+      <c r="AN8" s="51">
         <v>1</v>
       </c>
-      <c r="AO8" s="52">
+      <c r="AO8" s="51">
         <v>200</v>
       </c>
-      <c r="AP8" s="58">
+      <c r="AP8" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ8" s="61">
+      <c r="AQ8" s="60">
         <v>0</v>
       </c>
-      <c r="AR8" s="58">
+      <c r="AR8" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS8" s="59" t="s">
+      <c r="AS8" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT8" s="59" t="s">
+      <c r="AT8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU8" s="52">
+      <c r="AU8" s="51">
         <v>0</v>
       </c>
-      <c r="AV8" s="52">
+      <c r="AV8" s="51">
         <v>0</v>
       </c>
-      <c r="AW8" s="52">
+      <c r="AW8" s="51">
         <v>1</v>
       </c>
-      <c r="AX8" s="52">
+      <c r="AX8" s="51">
         <v>0</v>
       </c>
-      <c r="AY8" s="52"/>
-      <c r="AZ8" s="52">
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51">
         <v>0</v>
       </c>
-      <c r="BA8" s="52">
+      <c r="BA8" s="51">
         <v>0</v>
       </c>
-      <c r="BB8" s="52">
+      <c r="BB8" s="51">
         <v>0</v>
       </c>
       <c r="BC8" s="4">
         <v>0</v>
       </c>
       <c r="BD8" s="4"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="61"/>
+      <c r="BH8" s="61"/>
       <c r="BI8" s="4">
         <v>0</v>
       </c>
-      <c r="BJ8" s="59" t="s">
+      <c r="BJ8" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="BK8" s="52">
+      <c r="BK8" s="51">
         <v>70</v>
       </c>
-      <c r="BL8" s="58">
+      <c r="BL8" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM8" s="58">
+      <c r="BM8" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D8, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN8" s="63"/>
+      <c r="BN8" s="62"/>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="64">
+      <c r="BR8" s="4"/>
+      <c r="BS8" s="63">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>1544</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>1</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="52">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="51">
         <v>1</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="52" t="s">
         <v>1545</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="54">
+      <c r="H9" s="48"/>
+      <c r="I9" s="53">
         <v>1.6</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="57">
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y9" s="57">
+      <c r="Y9" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z9" s="58">
+      <c r="Z9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA9" s="58">
+      <c r="AA9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="58">
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI9" s="58">
+      <c r="AI9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ9" s="58">
+      <c r="AJ9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK9" s="58">
+      <c r="AK9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL9" s="58">
+      <c r="AL9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM9" s="58">
+      <c r="AM9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN9" s="52">
+      <c r="AN9" s="51">
         <v>0</v>
       </c>
-      <c r="AO9" s="52">
+      <c r="AO9" s="51">
         <v>200</v>
       </c>
-      <c r="AP9" s="58">
+      <c r="AP9" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ9" s="61">
+      <c r="AQ9" s="60">
         <v>0</v>
       </c>
-      <c r="AR9" s="58">
+      <c r="AR9" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS9" s="59" t="s">
+      <c r="AS9" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT9" s="59" t="s">
+      <c r="AT9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU9" s="52">
+      <c r="AU9" s="51">
         <v>0</v>
       </c>
-      <c r="AV9" s="52">
+      <c r="AV9" s="51">
         <v>0</v>
       </c>
-      <c r="AW9" s="52">
+      <c r="AW9" s="51">
         <v>1</v>
       </c>
-      <c r="AX9" s="52">
+      <c r="AX9" s="51">
         <v>0</v>
       </c>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52">
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51">
         <v>0</v>
       </c>
-      <c r="BA9" s="52">
+      <c r="BA9" s="51">
         <v>0</v>
       </c>
-      <c r="BB9" s="52">
+      <c r="BB9" s="51">
         <v>0</v>
       </c>
       <c r="BC9" s="4">
         <v>0</v>
       </c>
       <c r="BD9" s="4"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="62"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="61"/>
       <c r="BI9" s="4">
         <v>0</v>
       </c>
-      <c r="BJ9" s="59" t="s">
+      <c r="BJ9" s="58" t="s">
         <v>1546</v>
       </c>
-      <c r="BK9" s="52">
+      <c r="BK9" s="51">
         <v>70</v>
       </c>
-      <c r="BL9" s="58">
+      <c r="BL9" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM9" s="58">
+      <c r="BM9" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D9, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN9" s="63"/>
+      <c r="BN9" s="62"/>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="64">
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="63">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>1547</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>1</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="52">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="51">
         <v>1</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="52" t="s">
         <v>1545</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="54">
+      <c r="H10" s="48"/>
+      <c r="I10" s="53">
         <v>1</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="57">
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y10" s="57">
+      <c r="Y10" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z10" s="58">
+      <c r="Z10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA10" s="58">
+      <c r="AA10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="58">
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI10" s="58">
+      <c r="AI10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ10" s="58">
+      <c r="AJ10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK10" s="58">
+      <c r="AK10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL10" s="58">
+      <c r="AL10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM10" s="58">
+      <c r="AM10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN10" s="52">
+      <c r="AN10" s="51">
         <v>0</v>
       </c>
-      <c r="AO10" s="52">
+      <c r="AO10" s="51">
         <v>200</v>
       </c>
-      <c r="AP10" s="58">
+      <c r="AP10" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ10" s="61">
+      <c r="AQ10" s="60">
         <v>0</v>
       </c>
-      <c r="AR10" s="58">
+      <c r="AR10" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS10" s="59" t="s">
+      <c r="AS10" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT10" s="59" t="s">
+      <c r="AT10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU10" s="52">
+      <c r="AU10" s="51">
         <v>0</v>
       </c>
-      <c r="AV10" s="52">
+      <c r="AV10" s="51">
         <v>0</v>
       </c>
-      <c r="AW10" s="52">
+      <c r="AW10" s="51">
         <v>1</v>
       </c>
-      <c r="AX10" s="52">
+      <c r="AX10" s="51">
         <v>0</v>
       </c>
-      <c r="AY10" s="52"/>
-      <c r="AZ10" s="52">
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51">
         <v>0</v>
       </c>
-      <c r="BA10" s="52">
+      <c r="BA10" s="51">
         <v>0</v>
       </c>
-      <c r="BB10" s="52">
+      <c r="BB10" s="51">
         <v>0</v>
       </c>
       <c r="BC10" s="4">
         <v>0</v>
       </c>
       <c r="BD10" s="4"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BG10" s="62"/>
-      <c r="BH10" s="62"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
       <c r="BI10" s="4">
         <v>0</v>
       </c>
-      <c r="BJ10" s="59" t="s">
+      <c r="BJ10" s="58" t="s">
         <v>1543</v>
       </c>
-      <c r="BK10" s="52">
+      <c r="BK10" s="51">
         <v>60</v>
       </c>
-      <c r="BL10" s="58">
+      <c r="BL10" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM10" s="58">
+      <c r="BM10" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D10, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN10" s="63"/>
+      <c r="BN10" s="62"/>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="64">
+      <c r="BR10" s="4"/>
+      <c r="BS10" s="63">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>1548</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="49">
         <v>1</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="52">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="51">
         <v>1</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="52" t="s">
         <v>1545</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="H11" s="48"/>
+      <c r="I11" s="53">
         <v>0.7</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="57">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y11" s="57">
+      <c r="Y11" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z11" s="58">
+      <c r="Z11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA11" s="58">
+      <c r="AA11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="58">
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI11" s="58">
+      <c r="AI11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ11" s="58">
+      <c r="AJ11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK11" s="58">
+      <c r="AK11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL11" s="58">
+      <c r="AL11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM11" s="58">
+      <c r="AM11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN11" s="52">
+      <c r="AN11" s="51">
         <v>0</v>
       </c>
-      <c r="AO11" s="52">
+      <c r="AO11" s="51">
         <v>200</v>
       </c>
-      <c r="AP11" s="58">
+      <c r="AP11" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ11" s="61">
+      <c r="AQ11" s="60">
         <v>0</v>
       </c>
-      <c r="AR11" s="58">
+      <c r="AR11" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS11" s="59" t="s">
+      <c r="AS11" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT11" s="59" t="s">
+      <c r="AT11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU11" s="52">
+      <c r="AU11" s="51">
         <v>0</v>
       </c>
-      <c r="AV11" s="52">
+      <c r="AV11" s="51">
         <v>0</v>
       </c>
-      <c r="AW11" s="52">
+      <c r="AW11" s="51">
         <v>1</v>
       </c>
-      <c r="AX11" s="52">
+      <c r="AX11" s="51">
         <v>0</v>
       </c>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52">
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51">
         <v>0</v>
       </c>
-      <c r="BA11" s="52">
+      <c r="BA11" s="51">
         <v>0</v>
       </c>
-      <c r="BB11" s="52">
+      <c r="BB11" s="51">
         <v>0</v>
       </c>
       <c r="BC11" s="4">
         <v>0</v>
       </c>
       <c r="BD11" s="4"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="62"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="61"/>
       <c r="BI11" s="4">
         <v>0</v>
       </c>
-      <c r="BJ11" s="59" t="s">
+      <c r="BJ11" s="58" t="s">
         <v>1536</v>
       </c>
-      <c r="BK11" s="52">
+      <c r="BK11" s="51">
         <v>50</v>
       </c>
-      <c r="BL11" s="58">
+      <c r="BL11" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM11" s="58">
+      <c r="BM11" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D11, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN11" s="63"/>
+      <c r="BN11" s="62"/>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="64">
+      <c r="BR11" s="4"/>
+      <c r="BS11" s="63">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>1549</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="49">
         <v>1</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="52">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="51">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="52" t="s">
         <v>1539</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="54">
+      <c r="H12" s="48"/>
+      <c r="I12" s="53">
         <v>1</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="57">
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y12" s="57">
+      <c r="Y12" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z12" s="58">
+      <c r="Z12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA12" s="58">
+      <c r="AA12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="58">
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI12" s="58">
+      <c r="AI12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ12" s="58">
+      <c r="AJ12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK12" s="58">
+      <c r="AK12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL12" s="58">
+      <c r="AL12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM12" s="58">
+      <c r="AM12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN12" s="52">
+      <c r="AN12" s="51">
         <v>0</v>
       </c>
-      <c r="AO12" s="52">
+      <c r="AO12" s="51">
         <v>200</v>
       </c>
-      <c r="AP12" s="58">
+      <c r="AP12" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ12" s="61">
+      <c r="AQ12" s="60">
         <f>vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR12" s="58">
+      <c r="AR12" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS12" s="59" t="s">
+      <c r="AS12" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT12" s="59" t="s">
+      <c r="AT12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU12" s="52">
+      <c r="AU12" s="51">
         <v>0</v>
       </c>
-      <c r="AV12" s="52">
+      <c r="AV12" s="51">
         <v>0</v>
       </c>
-      <c r="AW12" s="52">
+      <c r="AW12" s="51">
         <v>1</v>
       </c>
-      <c r="AX12" s="52">
+      <c r="AX12" s="51">
         <v>0</v>
       </c>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52">
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51">
         <v>0</v>
       </c>
-      <c r="BA12" s="52">
+      <c r="BA12" s="51">
         <v>0</v>
       </c>
-      <c r="BB12" s="52">
+      <c r="BB12" s="51">
         <v>0</v>
       </c>
       <c r="BC12" s="4">
         <v>0</v>
       </c>
       <c r="BD12" s="4"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="62"/>
-      <c r="BH12" s="62"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
       <c r="BI12" s="4">
         <v>0</v>
       </c>
-      <c r="BJ12" s="59" t="s">
+      <c r="BJ12" s="58" t="s">
         <v>1546</v>
       </c>
-      <c r="BK12" s="52">
+      <c r="BK12" s="51">
         <v>70</v>
       </c>
-      <c r="BL12" s="58">
+      <c r="BL12" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM12" s="58">
+      <c r="BM12" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D12, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN12" s="63"/>
+      <c r="BN12" s="62"/>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="64">
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="63">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="49" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="48" t="s">
         <v>1550</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>1</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="52">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="51">
         <v>1</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>1528</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>1551</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="54">
+      <c r="H13" s="48"/>
+      <c r="I13" s="53">
         <v>1</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="57">
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 4, false())</f>
       </c>
-      <c r="Y13" s="57">
+      <c r="Y13" s="56">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 5, false())</f>
       </c>
-      <c r="Z13" s="58">
+      <c r="Z13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 6, false())</f>
       </c>
-      <c r="AA13" s="58">
+      <c r="AA13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 7, false())</f>
       </c>
-      <c r="AB13" s="53" t="s">
+      <c r="AB13" s="52" t="s">
         <v>1552</v>
       </c>
-      <c r="AC13" s="59" t="s">
+      <c r="AC13" s="58" t="s">
         <v>1553</v>
       </c>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="58">
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 8, false())</f>
       </c>
-      <c r="AI13" s="58">
+      <c r="AI13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 9, false())</f>
       </c>
-      <c r="AJ13" s="58">
+      <c r="AJ13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 10, false())</f>
       </c>
-      <c r="AK13" s="58">
+      <c r="AK13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 11, false())</f>
       </c>
-      <c r="AL13" s="58">
+      <c r="AL13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 12, false())</f>
       </c>
-      <c r="AM13" s="58">
+      <c r="AM13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 13, false())</f>
       </c>
-      <c r="AN13" s="52">
+      <c r="AN13" s="51">
         <v>0</v>
       </c>
-      <c r="AO13" s="52">
+      <c r="AO13" s="51">
         <v>200</v>
       </c>
-      <c r="AP13" s="58">
+      <c r="AP13" s="57">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 15, false())</f>
       </c>
-      <c r="AQ13" s="61">
+      <c r="AQ13" s="60">
         <f>vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 16, false())</f>
       </c>
-      <c r="AR13" s="58">
+      <c r="AR13" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 17, false()))</f>
       </c>
-      <c r="AS13" s="59" t="s">
+      <c r="AS13" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="AT13" s="59" t="s">
+      <c r="AT13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AU13" s="52">
+      <c r="AU13" s="51">
         <v>0</v>
       </c>
-      <c r="AV13" s="52">
+      <c r="AV13" s="51">
         <v>0</v>
       </c>
-      <c r="AW13" s="52">
+      <c r="AW13" s="51">
         <v>2000</v>
       </c>
-      <c r="AX13" s="52">
+      <c r="AX13" s="51">
         <v>200</v>
       </c>
-      <c r="AY13" s="52"/>
-      <c r="AZ13" s="52">
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51">
         <v>0</v>
       </c>
-      <c r="BA13" s="52">
+      <c r="BA13" s="51">
         <v>0</v>
       </c>
-      <c r="BB13" s="52">
+      <c r="BB13" s="51">
         <v>0</v>
       </c>
       <c r="BC13" s="4">
         <v>0</v>
       </c>
       <c r="BD13" s="4"/>
-      <c r="BE13" s="52">
-        <v>300</v>
-      </c>
-      <c r="BF13" s="52">
-        <v>300</v>
-      </c>
-      <c r="BG13" s="62">
+      <c r="BE13" s="51">
+        <v>60</v>
+      </c>
+      <c r="BF13" s="51">
+        <v>60</v>
+      </c>
+      <c r="BG13" s="61">
         <v>1</v>
       </c>
-      <c r="BH13" s="62"/>
+      <c r="BH13" s="61"/>
       <c r="BI13" s="4">
         <v>256</v>
       </c>
-      <c r="BJ13" s="59" t="s">
+      <c r="BJ13" s="58" t="s">
         <v>1554</v>
       </c>
-      <c r="BK13" s="52">
+      <c r="BK13" s="51">
         <v>120</v>
       </c>
-      <c r="BL13" s="58">
+      <c r="BL13" s="57">
         <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 22, false()))</f>
       </c>
-      <c r="BM13" s="58">
+      <c r="BM13" s="60">
         <f>if(vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D13, OriginalData!$A$2:$W$122, 23, false()))</f>
       </c>
-      <c r="BN13" s="63"/>
+      <c r="BN13" s="62"/>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="64">
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="63">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="4"/>
+      <c r="A14" s="48" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B14" s="49">
+        <v>1</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51">
+        <v>1</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="53">
+        <v>1</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y14" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB14" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN14" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP14" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ14" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR14" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS14" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT14" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU14" s="51">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW14" s="51">
+        <v>300</v>
+      </c>
+      <c r="AX14" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY14" s="51">
+        <v>100000</v>
+      </c>
+      <c r="AZ14" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="4">
+        <v>20</v>
+      </c>
       <c r="BD14" s="4"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="68"/>
-      <c r="BH14" s="68"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="70"/>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="4"/>
-      <c r="BN14" s="31"/>
+      <c r="BE14" s="51">
+        <v>15</v>
+      </c>
+      <c r="BF14" s="51">
+        <v>15</v>
+      </c>
+      <c r="BG14" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ14" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK14" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL14" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM14" s="60">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D14, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN14" s="62"/>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="66"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
-      <c r="BC15" s="4"/>
+      <c r="A15" s="48" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B15" s="49">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="51">
+        <v>1</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H15" s="48"/>
+      <c r="I15" s="53">
+        <v>1</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y15" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN15" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP15" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ15" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR15" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS15" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU15" s="51">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW15" s="51">
+        <v>150</v>
+      </c>
+      <c r="AX15" s="51">
+        <v>5</v>
+      </c>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>40</v>
+      </c>
       <c r="BD15" s="4"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="67"/>
-      <c r="BJ15" s="70"/>
-      <c r="BK15" s="67"/>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="31"/>
+      <c r="BE15" s="51">
+        <v>25</v>
+      </c>
+      <c r="BF15" s="51">
+        <v>30</v>
+      </c>
+      <c r="BG15" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>600</v>
+      </c>
+      <c r="BJ15" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK15" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL15" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM15" s="60">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D15, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN15" s="62"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
       <c r="BQ15" s="1"/>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="4"/>
+      <c r="BR15" s="4"/>
+      <c r="BS15" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="66"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
-      <c r="BC16" s="4"/>
+      <c r="A16" s="48" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51">
+        <v>1</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="53">
+        <v>2</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y16" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB16" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC16" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD16" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN16" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP16" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ16" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR16" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS16" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT16" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU16" s="51">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW16" s="51">
+        <v>300</v>
+      </c>
+      <c r="AX16" s="51">
+        <v>20</v>
+      </c>
+      <c r="AY16" s="51">
+        <v>1000</v>
+      </c>
+      <c r="AZ16" s="51">
+        <v>10</v>
+      </c>
+      <c r="BA16" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>120</v>
+      </c>
       <c r="BD16" s="4"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="68"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="70"/>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="31"/>
+      <c r="BE16" s="51">
+        <v>20</v>
+      </c>
+      <c r="BF16" s="51">
+        <v>25</v>
+      </c>
+      <c r="BG16" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>600</v>
+      </c>
+      <c r="BJ16" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK16" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL16" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM16" s="60">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D16, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN16" s="62"/>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BS16" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="66"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="67"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="67"/>
-      <c r="AW17" s="67"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
-      <c r="BC17" s="4"/>
+      <c r="A17" s="48" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="51">
+        <v>1</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="53">
+        <v>1</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y17" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN17" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP17" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ17" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR17" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS17" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT17" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU17" s="51">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW17" s="51">
+        <v>100</v>
+      </c>
+      <c r="AX17" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY17" s="51">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="4">
+        <v>20</v>
+      </c>
       <c r="BD17" s="4"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="68"/>
-      <c r="BH17" s="68"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="70"/>
-      <c r="BK17" s="67"/>
-      <c r="BL17" s="31"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="31"/>
+      <c r="BE17" s="51">
+        <v>15</v>
+      </c>
+      <c r="BF17" s="51">
+        <v>15</v>
+      </c>
+      <c r="BG17" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI17" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ17" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK17" s="51">
+        <v>30</v>
+      </c>
+      <c r="BL17" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 22, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 22, false()))</f>
+      </c>
+      <c r="BM17" s="60">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 23, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D17, OriginalData!$A$2:$W$122, 23, false()))</f>
+      </c>
+      <c r="BN17" s="62"/>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="66"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="67"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="67"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="67"/>
-      <c r="AV18" s="67"/>
-      <c r="AW18" s="67"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="67"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
-      <c r="BC18" s="4"/>
+      <c r="A18" s="48" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B18" s="49">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="51">
+        <v>1</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="53">
+        <v>1</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y18" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB18" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC18" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD18" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE18" s="66" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AF18" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN18" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP18" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ18" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR18" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D18, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS18" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT18" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU18" s="51">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW18" s="51">
+        <v>400</v>
+      </c>
+      <c r="AX18" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY18" s="51">
+        <v>1000</v>
+      </c>
+      <c r="AZ18" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>200</v>
+      </c>
       <c r="BD18" s="4"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="67"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="67"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="31"/>
+      <c r="BE18" s="51">
+        <v>15</v>
+      </c>
+      <c r="BF18" s="51">
+        <v>20</v>
+      </c>
+      <c r="BG18" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="BH18" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>600</v>
+      </c>
+      <c r="BJ18" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK18" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL18" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM18" s="60">
+        <v>1000</v>
+      </c>
+      <c r="BN18" s="62"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="66"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="67"/>
-      <c r="AV19" s="67"/>
-      <c r="AW19" s="67"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="4"/>
+      <c r="A19" s="48" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B19" s="49">
+        <v>1</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="51">
+        <v>1</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y19" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB19" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC19" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD19" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN19" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP19" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ19" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR19" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D19, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS19" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT19" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU19" s="51">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="51">
+        <v>40</v>
+      </c>
+      <c r="AW19" s="51">
+        <v>500</v>
+      </c>
+      <c r="AX19" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY19" s="51">
+        <v>500</v>
+      </c>
+      <c r="AZ19" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="4">
+        <v>150</v>
+      </c>
       <c r="BD19" s="4"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="67"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="67"/>
-      <c r="BJ19" s="70"/>
-      <c r="BK19" s="67"/>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="31"/>
+      <c r="BE19" s="51">
+        <v>25</v>
+      </c>
+      <c r="BF19" s="51">
+        <v>35</v>
+      </c>
+      <c r="BG19" s="61">
+        <v>1.6</v>
+      </c>
+      <c r="BH19" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI19" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ19" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK19" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="60"/>
+      <c r="BN19" s="62"/>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="4"/>
+      <c r="BR19" s="4"/>
+      <c r="BS19" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="66"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="67"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="67"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="67"/>
-      <c r="AV20" s="67"/>
-      <c r="AW20" s="67"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="67"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="4"/>
+      <c r="A20" s="48" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B20" s="49">
+        <v>1</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="51">
+        <v>1</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="53">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y20" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN20" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP20" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ20" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR20" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D20, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS20" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT20" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU20" s="51">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="51">
+        <v>20</v>
+      </c>
+      <c r="AW20" s="51">
+        <v>200</v>
+      </c>
+      <c r="AX20" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY20" s="51">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="4">
+        <v>20</v>
+      </c>
       <c r="BD20" s="4"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="67"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="67"/>
-      <c r="BJ20" s="70"/>
-      <c r="BK20" s="67"/>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="31"/>
+      <c r="BE20" s="51">
+        <v>25</v>
+      </c>
+      <c r="BF20" s="51">
+        <v>35</v>
+      </c>
+      <c r="BG20" s="61">
+        <v>1.4</v>
+      </c>
+      <c r="BH20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI20" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ20" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK20" s="51">
+        <v>30</v>
+      </c>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="60"/>
+      <c r="BN20" s="62"/>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="4"/>
+      <c r="BR20" s="4"/>
+      <c r="BS20" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="66"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="67"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="67"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="67"/>
-      <c r="AV21" s="67"/>
-      <c r="AW21" s="67"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="4"/>
+      <c r="A21" s="48" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="51">
+        <v>1</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y21" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB21" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC21" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD21" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN21" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP21" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ21" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR21" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D21, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS21" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT21" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU21" s="51">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW21" s="51">
+        <v>250</v>
+      </c>
+      <c r="AX21" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY21" s="51">
+        <v>600</v>
+      </c>
+      <c r="AZ21" s="51">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="4">
+        <v>100</v>
+      </c>
       <c r="BD21" s="4"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="67"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="67"/>
-      <c r="BJ21" s="70"/>
-      <c r="BK21" s="67"/>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="31"/>
+      <c r="BE21" s="51">
+        <v>25</v>
+      </c>
+      <c r="BF21" s="51">
+        <v>35</v>
+      </c>
+      <c r="BG21" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI21" s="4">
+        <v>500</v>
+      </c>
+      <c r="BJ21" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK21" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL21" s="58" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BM21" s="60">
+        <v>800</v>
+      </c>
+      <c r="BN21" s="62"/>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="4"/>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="66"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="67"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="67"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="67"/>
-      <c r="AW22" s="67"/>
-      <c r="AX22" s="67"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="67"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="4"/>
+      <c r="A22" s="48" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B22" s="49">
+        <v>1</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="51">
+        <v>1</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y22" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="58"/>
+      <c r="AG22" s="58"/>
+      <c r="AH22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN22" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP22" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ22" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR22" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D22, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS22" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT22" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU22" s="51">
+        <v>4</v>
+      </c>
+      <c r="AV22" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW22" s="51">
+        <v>150</v>
+      </c>
+      <c r="AX22" s="51">
+        <v>10</v>
+      </c>
+      <c r="AY22" s="51">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>40</v>
+      </c>
       <c r="BD22" s="4"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="70"/>
-      <c r="BK22" s="67"/>
-      <c r="BL22" s="31"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="31"/>
+      <c r="BE22" s="51">
+        <v>30</v>
+      </c>
+      <c r="BF22" s="51">
+        <v>40</v>
+      </c>
+      <c r="BG22" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>256</v>
+      </c>
+      <c r="BJ22" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK22" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL22" s="58"/>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="62"/>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-      <c r="BR22" s="31"/>
-      <c r="BS22" s="4"/>
+      <c r="BR22" s="4"/>
+      <c r="BS22" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="66"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="67"/>
-      <c r="AO23" s="67"/>
-      <c r="AP23" s="67"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="67"/>
-      <c r="AV23" s="67"/>
-      <c r="AW23" s="67"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="4"/>
+      <c r="A23" s="48" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B23" s="49">
+        <v>1</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="51">
+        <v>1</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="53">
+        <v>1</v>
+      </c>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y23" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB23" s="64" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN23" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP23" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ23" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR23" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D23, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS23" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT23" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU23" s="51">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW23" s="51">
+        <v>100</v>
+      </c>
+      <c r="AX23" s="51">
+        <v>5</v>
+      </c>
+      <c r="AY23" s="51">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="51">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>40</v>
+      </c>
       <c r="BD23" s="4"/>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="70"/>
-      <c r="BK23" s="67"/>
-      <c r="BL23" s="31"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="31"/>
+      <c r="BE23" s="51">
+        <v>15</v>
+      </c>
+      <c r="BF23" s="51">
+        <v>20</v>
+      </c>
+      <c r="BG23" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>128</v>
+      </c>
+      <c r="BJ23" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK23" s="51">
+        <v>50</v>
+      </c>
+      <c r="BL23" s="58"/>
+      <c r="BM23" s="60"/>
+      <c r="BN23" s="62"/>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
-      <c r="BR23" s="31"/>
-      <c r="BS23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BS23" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="66"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="67"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="67"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="70"/>
-      <c r="AS24" s="70"/>
-      <c r="AT24" s="70"/>
-      <c r="AU24" s="67"/>
-      <c r="AV24" s="67"/>
-      <c r="AW24" s="67"/>
-      <c r="AX24" s="67"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="67"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="4"/>
+      <c r="A24" s="48" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="51">
+        <v>1</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="53">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y24" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB24" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="58"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN24" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP24" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ24" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR24" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D24, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS24" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT24" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU24" s="51">
+        <v>4</v>
+      </c>
+      <c r="AV24" s="51">
+        <v>40</v>
+      </c>
+      <c r="AW24" s="51">
+        <v>600</v>
+      </c>
+      <c r="AX24" s="51">
+        <v>20</v>
+      </c>
+      <c r="AY24" s="51">
+        <v>2000</v>
+      </c>
+      <c r="AZ24" s="51">
+        <v>20</v>
+      </c>
+      <c r="BA24" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>300</v>
+      </c>
       <c r="BD24" s="4"/>
-      <c r="BE24" s="67"/>
-      <c r="BF24" s="67"/>
-      <c r="BG24" s="68"/>
-      <c r="BH24" s="68"/>
-      <c r="BI24" s="67"/>
-      <c r="BJ24" s="70"/>
-      <c r="BK24" s="67"/>
-      <c r="BL24" s="31"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="31"/>
+      <c r="BE24" s="51">
+        <v>35</v>
+      </c>
+      <c r="BF24" s="51">
+        <v>45</v>
+      </c>
+      <c r="BG24" s="61">
+        <v>1.2</v>
+      </c>
+      <c r="BH24" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>700</v>
+      </c>
+      <c r="BJ24" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK24" s="51">
+        <v>90</v>
+      </c>
+      <c r="BL24" s="58" t="s">
+        <v>1577</v>
+      </c>
+      <c r="BM24" s="60">
+        <v>800</v>
+      </c>
+      <c r="BN24" s="62"/>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
-      <c r="BR24" s="31"/>
-      <c r="BS24" s="4"/>
+      <c r="BR24" s="4"/>
+      <c r="BS24" s="63">
+        <v>0</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="70"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="70"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="67"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="4"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="48" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B25" s="49">
+        <v>1</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="51">
+        <v>1</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="53">
+        <v>1</v>
+      </c>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="54">
+        <v>212</v>
+      </c>
+      <c r="M25" s="54">
+        <v>659</v>
+      </c>
+      <c r="N25" s="54">
+        <v>508</v>
+      </c>
+      <c r="O25" s="54">
+        <v>214</v>
+      </c>
+      <c r="P25" s="54">
+        <v>213</v>
+      </c>
+      <c r="Q25" s="51">
+        <v>211</v>
+      </c>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y25" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB25" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC25" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD25" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN25" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP25" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ25" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR25" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D25, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS25" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT25" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU25" s="51">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW25" s="51">
+        <v>400</v>
+      </c>
+      <c r="AX25" s="51">
+        <v>20</v>
+      </c>
+      <c r="AY25" s="51">
+        <v>2000</v>
+      </c>
+      <c r="AZ25" s="51">
+        <v>50</v>
+      </c>
+      <c r="BA25" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>300</v>
+      </c>
       <c r="BD25" s="4"/>
-      <c r="BE25" s="67"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="67"/>
-      <c r="BJ25" s="70"/>
-      <c r="BK25" s="67"/>
-      <c r="BL25" s="31"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="31"/>
+      <c r="BE25" s="51">
+        <v>30</v>
+      </c>
+      <c r="BF25" s="51">
+        <v>40</v>
+      </c>
+      <c r="BG25" s="61">
+        <v>1.2</v>
+      </c>
+      <c r="BH25" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>700</v>
+      </c>
+      <c r="BJ25" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK25" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL25" s="58" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BM25" s="60">
+        <v>800</v>
+      </c>
+      <c r="BN25" s="62"/>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
-      <c r="BR25" s="31"/>
-      <c r="BS25" s="4"/>
+      <c r="BR25" s="4"/>
+      <c r="BS25" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="48" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B26" s="49">
+        <v>1</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="51">
+        <v>1</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26" s="53">
+        <v>1</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y26" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB26" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC26" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD26" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="58"/>
+      <c r="AH26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN26" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP26" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ26" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR26" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D26, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS26" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT26" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU26" s="51">
+        <v>3</v>
+      </c>
+      <c r="AV26" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW26" s="51">
+        <v>300</v>
+      </c>
+      <c r="AX26" s="51">
+        <v>20</v>
+      </c>
+      <c r="AY26" s="51">
+        <v>1000</v>
+      </c>
+      <c r="AZ26" s="51">
+        <v>20</v>
+      </c>
+      <c r="BA26" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>150</v>
+      </c>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="51">
+        <v>20</v>
+      </c>
+      <c r="BF26" s="51">
+        <v>25</v>
+      </c>
+      <c r="BG26" s="61">
+        <v>1.2</v>
+      </c>
+      <c r="BH26" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>128</v>
+      </c>
+      <c r="BJ26" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK26" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL26" s="58" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BM26" s="60">
+        <v>800</v>
+      </c>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="4"/>
+      <c r="BS26" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+      <c r="A27" s="48" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B27" s="49">
+        <v>1</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="51">
+        <v>1</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="53">
+        <v>1</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 4, false())</f>
+      </c>
+      <c r="Y27" s="56">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 5, false())</f>
+      </c>
+      <c r="Z27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 6, false())</f>
+      </c>
+      <c r="AA27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 7, false())</f>
+      </c>
+      <c r="AB27" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AC27" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AD27" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 8, false())</f>
+      </c>
+      <c r="AI27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 9, false())</f>
+      </c>
+      <c r="AJ27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 10, false())</f>
+      </c>
+      <c r="AK27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 11, false())</f>
+      </c>
+      <c r="AL27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 12, false())</f>
+      </c>
+      <c r="AM27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 13, false())</f>
+      </c>
+      <c r="AN27" s="51">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="51">
+        <v>200</v>
+      </c>
+      <c r="AP27" s="57">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 15, false())</f>
+      </c>
+      <c r="AQ27" s="60">
+        <f>vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 16, false())</f>
+      </c>
+      <c r="AR27" s="57">
+        <f>if(vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 17, false())="nil", "", vlookup("npc_dota_hero_"&amp;$D27, OriginalData!$A$2:$W$122, 17, false()))</f>
+      </c>
+      <c r="AS27" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="AT27" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU27" s="51">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="51">
+        <v>10</v>
+      </c>
+      <c r="AW27" s="51">
+        <v>180</v>
+      </c>
+      <c r="AX27" s="51">
+        <v>20</v>
+      </c>
+      <c r="AY27" s="51">
+        <v>1000</v>
+      </c>
+      <c r="AZ27" s="51">
+        <v>20</v>
+      </c>
+      <c r="BA27" s="51">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="51">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="4">
+        <v>60</v>
+      </c>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="51">
+        <v>25</v>
+      </c>
+      <c r="BF27" s="51">
+        <v>30</v>
+      </c>
+      <c r="BG27" s="61">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>128</v>
+      </c>
+      <c r="BJ27" s="58" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BK27" s="51">
+        <v>70</v>
+      </c>
+      <c r="BL27" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="BM27" s="60">
+        <v>800</v>
+      </c>
+      <c r="BN27" s="62"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="4"/>
+      <c r="BS27" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="67"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="68"/>
+      <c r="BF28" s="68"/>
+      <c r="BG28" s="70"/>
+      <c r="BH28" s="70"/>
+      <c r="BI28" s="68"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="68"/>
+      <c r="BL28" s="69"/>
+      <c r="BM28" s="4"/>
+      <c r="BN28" s="69"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="4"/>
+      <c r="BS28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="67"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="68"/>
+      <c r="AO29" s="68"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="68"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="68"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="68"/>
+      <c r="BL29" s="69"/>
+      <c r="BM29" s="4"/>
+      <c r="BN29" s="69"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="4"/>
+      <c r="BS29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="67"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="69"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="68"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="70"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="68"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="68"/>
+      <c r="BG30" s="70"/>
+      <c r="BH30" s="70"/>
+      <c r="BI30" s="68"/>
+      <c r="BJ30" s="72"/>
+      <c r="BK30" s="68"/>
+      <c r="BL30" s="69"/>
+      <c r="BM30" s="4"/>
+      <c r="BN30" s="69"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="4"/>
+      <c r="BS30" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="67"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="70"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="68"/>
+      <c r="BG31" s="70"/>
+      <c r="BH31" s="70"/>
+      <c r="BI31" s="68"/>
+      <c r="BJ31" s="72"/>
+      <c r="BK31" s="68"/>
+      <c r="BL31" s="69"/>
+      <c r="BM31" s="4"/>
+      <c r="BN31" s="69"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="4"/>
+      <c r="BS31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="67"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="69"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="69"/>
+      <c r="AG32" s="69"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="69"/>
+      <c r="AL32" s="69"/>
+      <c r="AM32" s="69"/>
+      <c r="AN32" s="68"/>
+      <c r="AO32" s="68"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="70"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="68"/>
+      <c r="BG32" s="70"/>
+      <c r="BH32" s="70"/>
+      <c r="BI32" s="68"/>
+      <c r="BJ32" s="72"/>
+      <c r="BK32" s="68"/>
+      <c r="BL32" s="69"/>
+      <c r="BM32" s="4"/>
+      <c r="BN32" s="69"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="4"/>
+      <c r="BS32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="67"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="69"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="69"/>
+      <c r="AL33" s="69"/>
+      <c r="AM33" s="69"/>
+      <c r="AN33" s="68"/>
+      <c r="AO33" s="68"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="70"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="68"/>
+      <c r="BG33" s="70"/>
+      <c r="BH33" s="70"/>
+      <c r="BI33" s="68"/>
+      <c r="BJ33" s="72"/>
+      <c r="BK33" s="68"/>
+      <c r="BL33" s="69"/>
+      <c r="BM33" s="4"/>
+      <c r="BN33" s="69"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="4"/>
+      <c r="BS33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="67"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="69"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="69"/>
+      <c r="AL34" s="69"/>
+      <c r="AM34" s="69"/>
+      <c r="AN34" s="68"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="70"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="68"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="68"/>
+      <c r="BG34" s="70"/>
+      <c r="BH34" s="70"/>
+      <c r="BI34" s="68"/>
+      <c r="BJ34" s="72"/>
+      <c r="BK34" s="68"/>
+      <c r="BL34" s="69"/>
+      <c r="BM34" s="4"/>
+      <c r="BN34" s="69"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="4"/>
+      <c r="BS34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="67"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="69"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="69"/>
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="69"/>
+      <c r="AN35" s="68"/>
+      <c r="AO35" s="68"/>
+      <c r="AP35" s="68"/>
+      <c r="AQ35" s="70"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="68"/>
+      <c r="BF35" s="68"/>
+      <c r="BG35" s="70"/>
+      <c r="BH35" s="70"/>
+      <c r="BI35" s="68"/>
+      <c r="BJ35" s="72"/>
+      <c r="BK35" s="68"/>
+      <c r="BL35" s="69"/>
+      <c r="BM35" s="4"/>
+      <c r="BN35" s="69"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="4"/>
+      <c r="BS35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="67"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="69"/>
+      <c r="AC36" s="69"/>
+      <c r="AD36" s="69"/>
+      <c r="AE36" s="69"/>
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="69"/>
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="69"/>
+      <c r="AJ36" s="69"/>
+      <c r="AK36" s="69"/>
+      <c r="AL36" s="69"/>
+      <c r="AM36" s="69"/>
+      <c r="AN36" s="68"/>
+      <c r="AO36" s="68"/>
+      <c r="AP36" s="68"/>
+      <c r="AQ36" s="70"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="68"/>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="68"/>
+      <c r="BG36" s="70"/>
+      <c r="BH36" s="70"/>
+      <c r="BI36" s="68"/>
+      <c r="BJ36" s="72"/>
+      <c r="BK36" s="68"/>
+      <c r="BL36" s="69"/>
+      <c r="BM36" s="4"/>
+      <c r="BN36" s="69"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="4"/>
+      <c r="BS36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="67"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="69"/>
+      <c r="AD37" s="69"/>
+      <c r="AE37" s="69"/>
+      <c r="AF37" s="69"/>
+      <c r="AG37" s="69"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="69"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="69"/>
+      <c r="AL37" s="69"/>
+      <c r="AM37" s="69"/>
+      <c r="AN37" s="68"/>
+      <c r="AO37" s="68"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="70"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="68"/>
+      <c r="BJ37" s="72"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="69"/>
+      <c r="BM37" s="4"/>
+      <c r="BN37" s="69"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="4"/>
+      <c r="BS37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="67"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="69"/>
+      <c r="AC38" s="69"/>
+      <c r="AD38" s="69"/>
+      <c r="AE38" s="69"/>
+      <c r="AF38" s="69"/>
+      <c r="AG38" s="69"/>
+      <c r="AH38" s="69"/>
+      <c r="AI38" s="69"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="69"/>
+      <c r="AL38" s="69"/>
+      <c r="AM38" s="69"/>
+      <c r="AN38" s="68"/>
+      <c r="AO38" s="68"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="70"/>
+      <c r="AR38" s="72"/>
+      <c r="AS38" s="72"/>
+      <c r="AT38" s="72"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="68"/>
+      <c r="BG38" s="70"/>
+      <c r="BH38" s="70"/>
+      <c r="BI38" s="68"/>
+      <c r="BJ38" s="72"/>
+      <c r="BK38" s="68"/>
+      <c r="BL38" s="69"/>
+      <c r="BM38" s="4"/>
+      <c r="BN38" s="69"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="4"/>
+      <c r="BS38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+      <c r="A39" s="67"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="69"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="69"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="69"/>
+      <c r="AC39" s="69"/>
+      <c r="AD39" s="69"/>
+      <c r="AE39" s="69"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
+      <c r="AH39" s="69"/>
+      <c r="AI39" s="69"/>
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="69"/>
+      <c r="AL39" s="69"/>
+      <c r="AM39" s="69"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="70"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="68"/>
+      <c r="BG39" s="70"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="68"/>
+      <c r="BJ39" s="72"/>
+      <c r="BK39" s="68"/>
+      <c r="BL39" s="69"/>
+      <c r="BM39" s="4"/>
+      <c r="BN39" s="69"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
